--- a/biology/Zoologie/Centropyge_interruptus/Centropyge_interruptus.xlsx
+++ b/biology/Zoologie/Centropyge_interruptus/Centropyge_interruptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-ange nain japonais  (Centropyge interruptus ) est une espèce de poissons de la famille des pomacanthidés.  Elle est présente dans les récifs coralliens[1] de l'Océan Pacifique sur les côtes du Japon et de Hawaï[1],[2].La taille maximale pour cette espèce est de 19 cm[2] à 15 cm[1] selon les sources.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-ange nain japonais  (Centropyge interruptus ) est une espèce de poissons de la famille des pomacanthidés.  Elle est présente dans les récifs coralliens de l'Océan Pacifique sur les côtes du Japon et de Hawaï,.La taille maximale pour cette espèce est de 19 cm à 15 cm selon les sources.
 </t>
         </is>
       </c>
